--- a/Coleta centro2.xlsx
+++ b/Coleta centro2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdlfloripa-my.sharepoint.com/personal/zeladoria_cdlflorianopolis_org_br/Documents/Documentos/Rodrigo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdlfloripa-my.sharepoint.com/personal/zeladoria_cdlflorianopolis_org_br/Documents/Downloads/Coleta centro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{B408B9E2-D347-4DE9-99E1-3336164F3ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66A2BA25-E6C2-433F-8BC3-FFE4D0109EBC}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{B408B9E2-D347-4DE9-99E1-3336164F3ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{473574D6-CD4E-42D5-8593-A34DF0000FD5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{BC1067C3-107E-4691-8585-F610FEB5DCFB}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,6 +509,7 @@
         <v>760</v>
       </c>
       <c r="D2">
+        <f xml:space="preserve"> B2+C2</f>
         <v>1055</v>
       </c>
     </row>
@@ -523,7 +524,8 @@
         <v>1636</v>
       </c>
       <c r="D3">
-        <v>2692</v>
+        <f t="shared" ref="D3:D6" si="0" xml:space="preserve"> B3+C3</f>
+        <v>2657</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -537,6 +539,7 @@
         <v>793</v>
       </c>
       <c r="D4">
+        <f t="shared" si="0"/>
         <v>1201</v>
       </c>
     </row>
@@ -551,7 +554,7 @@
         <v>1606</v>
       </c>
       <c r="D5">
-        <f>SUM(B5:C5)</f>
+        <f t="shared" si="0"/>
         <v>2798</v>
       </c>
     </row>
@@ -566,7 +569,7 @@
         <v>1461</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D13" si="0">SUM(B6:C6)</f>
+        <f t="shared" si="0"/>
         <v>2506</v>
       </c>
     </row>
@@ -575,14 +578,14 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1267</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>3802</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="D7:D13" si="1">SUM(B7:C7)</f>
+        <v>5069</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -590,14 +593,14 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>789</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3981</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4770</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -611,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -626,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -641,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -656,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -671,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -679,17 +682,9 @@
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
-        <f>SUM(B2:B13)</f>
-        <v>3961</v>
-      </c>
-      <c r="C14">
-        <f>SUM(C2:C13)</f>
-        <v>6256</v>
-      </c>
       <c r="D14">
-        <f>SUM(B14:C14)</f>
-        <v>10217</v>
+        <f>SUM(D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12,D13)</f>
+        <v>20056</v>
       </c>
     </row>
   </sheetData>

--- a/Coleta centro2.xlsx
+++ b/Coleta centro2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdlfloripa-my.sharepoint.com/personal/zeladoria_cdlflorianopolis_org_br/Documents/Downloads/Coleta centro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{B408B9E2-D347-4DE9-99E1-3336164F3ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{473574D6-CD4E-42D5-8593-A34DF0000FD5}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{B408B9E2-D347-4DE9-99E1-3336164F3ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1757AEC3-EAC1-4421-8F10-3FEFE46B68B8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{BC1067C3-107E-4691-8585-F610FEB5DCFB}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,14 +593,14 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>789</v>
+        <v>817</v>
       </c>
       <c r="C8">
-        <v>3981</v>
+        <v>4232</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>4770</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -608,14 +608,14 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1699</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3741</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
       </c>
       <c r="D14">
         <f>SUM(D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12,D13)</f>
-        <v>20056</v>
+        <v>25775</v>
       </c>
     </row>
   </sheetData>
